--- a/Day2/DSA_Array_String_Patterns.xlsx
+++ b/Day2/DSA_Array_String_Patterns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="123">
   <si>
     <t>Category</t>
   </si>
@@ -933,7 +933,9 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -946,7 +948,9 @@
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
